--- a/biology/Biochimie/Ribulose/Ribulose.xlsx
+++ b/biology/Biochimie/Ribulose/Ribulose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le ribulose est un cétopentose (un pentose du type cétose), un ose constitué d’une chaîne de 5 éléments carbone ainsi que d’une fonction cétone.
@@ -512,7 +524,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa formule chimique est  C5H10O5 comme tous les cétopentoses. Il existe 2 énantiomères possibles, le D-ribulose (D-érythro-2-pentulose) et le L-ribulose (L-érythro-2-pentulose). Le D-ribulose est le diastéréoisomère du D-xylulose.
 Dans l'eau, le D-ribulose se trouve sous 3 conformations possibles : une linéaire et 2 tautomères cycliques de type furanose.
@@ -544,7 +558,9 @@
           <t>Rôle biologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ribuloses sont des sucres qui participent à la voie des pentoses phosphates et sont importants dans la formation de plusieurs biomolécules. Par exemple, le D-ribulose est un intermédiaire pour la fabrication du D-arabitol dans la voie métabolique des champignons. Sous forme phosphatée (ribulose-1,5 bisphosphate), il joue le rôle d'accepteur de dioxyde de carbone dans le cycle de Calvin qui prend place dans le stroma des chloroplastes des organismes photosynthétiques.
 </t>
